--- a/data/financial_statements/sofp/INCY.xlsx
+++ b/data/financial_statements/sofp/INCY.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2977000000</v>
+        <v>2977122000</v>
       </c>
       <c r="C2">
-        <v>2722000000</v>
+        <v>2722425000</v>
       </c>
       <c r="D2">
-        <v>2544000000</v>
+        <v>2544160000</v>
       </c>
       <c r="E2">
-        <v>2348000000</v>
+        <v>2348192000</v>
       </c>
       <c r="F2">
-        <v>2284000000</v>
+        <v>2284075000</v>
       </c>
       <c r="G2">
         <v>2080967000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>618000000</v>
+        <v>618188000</v>
       </c>
       <c r="C3">
-        <v>683000000</v>
+        <v>682968000</v>
       </c>
       <c r="D3">
-        <v>562000000</v>
+        <v>562344000</v>
       </c>
       <c r="E3">
-        <v>616000000</v>
+        <v>616300000</v>
       </c>
       <c r="F3">
-        <v>517000000</v>
+        <v>516689000</v>
       </c>
       <c r="G3">
         <v>438170000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>46000000</v>
+        <v>45869000</v>
       </c>
       <c r="C4">
-        <v>55000000</v>
+        <v>54502000</v>
       </c>
       <c r="D4">
-        <v>35000000</v>
+        <v>35457000</v>
       </c>
       <c r="E4">
-        <v>28000000</v>
+        <v>27904000</v>
       </c>
       <c r="F4">
-        <v>21000000</v>
+        <v>21303000</v>
       </c>
       <c r="G4">
         <v>16675000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>180000000</v>
@@ -1021,23 +1132,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3821000000</v>
+        <v>3821111000</v>
       </c>
       <c r="C6">
-        <v>3626000000</v>
+        <v>3625845000</v>
       </c>
       <c r="D6">
-        <v>3288000000</v>
+        <v>3288091000</v>
       </c>
       <c r="E6">
-        <v>3119000000</v>
+        <v>3118674000</v>
       </c>
       <c r="F6">
-        <v>2924000000</v>
+        <v>2923797000</v>
       </c>
       <c r="G6">
         <v>2620060000</v>
@@ -1143,23 +1254,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>742000000</v>
+        <v>715733000</v>
       </c>
       <c r="C7">
-        <v>749000000</v>
+        <v>721328000</v>
       </c>
       <c r="D7">
-        <v>757000000</v>
+        <v>729217000</v>
       </c>
       <c r="E7">
-        <v>751000000</v>
+        <v>723920000</v>
       </c>
       <c r="F7">
-        <v>714000000</v>
+        <v>686718000</v>
       </c>
       <c r="G7">
         <v>661360000</v>
@@ -1265,23 +1376,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>151000000</v>
+        <v>149124000</v>
       </c>
       <c r="C8">
-        <v>151000000</v>
+        <v>149784000</v>
       </c>
       <c r="D8">
-        <v>176000000</v>
+        <v>174681000</v>
       </c>
       <c r="E8">
-        <v>223000000</v>
+        <v>221266000</v>
       </c>
       <c r="F8">
-        <v>194000000</v>
+        <v>192096000</v>
       </c>
       <c r="G8">
         <v>222370000</v>
@@ -1378,23 +1489,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>290000000</v>
+        <v>290196000</v>
       </c>
       <c r="C9">
-        <v>296000000</v>
+        <v>295580000</v>
       </c>
       <c r="D9">
-        <v>301000000</v>
+        <v>300964000</v>
       </c>
       <c r="E9">
-        <v>306000000</v>
+        <v>306348000</v>
       </c>
       <c r="F9">
-        <v>312000000</v>
+        <v>311732000</v>
       </c>
       <c r="G9">
         <v>317116000</v>
@@ -1470,8 +1581,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>426840000</v>
@@ -1490,23 +1601,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>79000000</v>
+        <v>25267000</v>
       </c>
       <c r="C11">
-        <v>63000000</v>
+        <v>24656000</v>
       </c>
       <c r="D11">
-        <v>67000000</v>
+        <v>33123000</v>
       </c>
       <c r="E11">
-        <v>66000000</v>
+        <v>39024000</v>
       </c>
       <c r="F11">
-        <v>56000000</v>
+        <v>26470000</v>
       </c>
       <c r="G11">
         <v>20449000</v>
@@ -1603,8 +1714,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1689103000</v>
@@ -1725,23 +1836,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>5510000000</v>
+        <v>5510214000</v>
       </c>
       <c r="C13">
-        <v>5319000000</v>
+        <v>5319035000</v>
       </c>
       <c r="D13">
-        <v>5054000000</v>
+        <v>5054221000</v>
       </c>
       <c r="E13">
-        <v>4974000000</v>
+        <v>4933352000</v>
       </c>
       <c r="F13">
-        <v>4199000000</v>
+        <v>4198831000</v>
       </c>
       <c r="G13">
         <v>3904623000</v>
@@ -1847,23 +1958,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>163000000</v>
+        <v>163175000</v>
       </c>
       <c r="C14">
-        <v>195000000</v>
+        <v>194770000</v>
       </c>
       <c r="D14">
-        <v>153000000</v>
+        <v>152547000</v>
       </c>
       <c r="E14">
-        <v>172000000</v>
+        <v>172110000</v>
       </c>
       <c r="F14">
-        <v>115000000</v>
+        <v>114509000</v>
       </c>
       <c r="G14">
         <v>122100000</v>
@@ -1969,8 +2080,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>840309000</v>
@@ -2091,8 +2202,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>12000000</v>
@@ -2156,8 +2267,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>3112000</v>
@@ -2206,8 +2317,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="Z18">
         <v>2868000</v>
@@ -2256,8 +2367,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>832000000</v>
@@ -2297,23 +2408,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1007000000</v>
+        <v>1006596000</v>
       </c>
       <c r="C20">
-        <v>927000000</v>
+        <v>926674000</v>
       </c>
       <c r="D20">
-        <v>886000000</v>
+        <v>886163000</v>
       </c>
       <c r="E20">
-        <v>854000000</v>
+        <v>854308000</v>
       </c>
       <c r="F20">
-        <v>743000000</v>
+        <v>742712000</v>
       </c>
       <c r="G20">
         <v>660324000</v>
@@ -2419,23 +2530,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>30000000</v>
+        <v>30476000</v>
       </c>
       <c r="C21">
-        <v>31000000</v>
+        <v>31157000</v>
       </c>
       <c r="D21">
-        <v>31000000</v>
+        <v>31385000</v>
       </c>
       <c r="E21">
-        <v>47000000</v>
+        <v>31632000</v>
       </c>
       <c r="F21">
-        <v>46000000</v>
+        <v>31376000</v>
       </c>
       <c r="G21">
         <v>31838000</v>
@@ -2541,8 +2652,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AD22">
         <v>2869000</v>
@@ -2579,8 +2690,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>-427000000</v>
@@ -2623,23 +2734,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>247000000</v>
+        <v>246491000</v>
       </c>
       <c r="C24">
-        <v>276000000</v>
+        <v>276143000</v>
       </c>
       <c r="D24">
-        <v>273000000</v>
+        <v>273601000</v>
       </c>
       <c r="E24">
-        <v>262000000</v>
+        <v>277408000</v>
       </c>
       <c r="F24">
-        <v>261000000</v>
+        <v>276086000</v>
       </c>
       <c r="G24">
         <v>276600000</v>
@@ -2742,8 +2853,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>276967000</v>
@@ -2864,23 +2975,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1284000000</v>
+        <v>1283563000</v>
       </c>
       <c r="C26">
-        <v>1234000000</v>
+        <v>1233974000</v>
       </c>
       <c r="D26">
-        <v>1191000000</v>
+        <v>1191149000</v>
       </c>
       <c r="E26">
-        <v>1204000000</v>
+        <v>1163348000</v>
       </c>
       <c r="F26">
-        <v>1050000000</v>
+        <v>1050174000</v>
       </c>
       <c r="G26">
         <v>968762000</v>
@@ -2986,8 +3097,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>4721166000</v>
@@ -3108,23 +3219,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>221000</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>221000</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>221000</v>
       </c>
       <c r="G28">
         <v>220000</v>
@@ -3230,23 +3341,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>-466000000</v>
+        <v>-465675000</v>
       </c>
       <c r="C29">
-        <v>-578000000</v>
+        <v>-578450000</v>
       </c>
       <c r="D29">
-        <v>-740000000</v>
+        <v>-739882000</v>
       </c>
       <c r="E29">
-        <v>-778000000</v>
+        <v>-777874000</v>
       </c>
       <c r="F29">
-        <v>-1342000000</v>
+        <v>-1341725000</v>
       </c>
       <c r="G29">
         <v>-1523464000</v>
@@ -3352,23 +3463,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>4227000000</v>
+        <v>4226651000</v>
       </c>
       <c r="C30">
-        <v>4085000000</v>
+        <v>4085061000</v>
       </c>
       <c r="D30">
-        <v>3863000000</v>
+        <v>3863072000</v>
       </c>
       <c r="E30">
-        <v>3770000000</v>
+        <v>3770004000</v>
       </c>
       <c r="F30">
-        <v>3149000000</v>
+        <v>3148657000</v>
       </c>
       <c r="G30">
         <v>2935861000</v>
@@ -3474,23 +3585,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>4227000000</v>
+        <v>4226651000</v>
       </c>
       <c r="C31">
-        <v>4085000000</v>
+        <v>4085061000</v>
       </c>
       <c r="D31">
-        <v>3863000000</v>
+        <v>3863072000</v>
       </c>
       <c r="E31">
-        <v>3770000000</v>
+        <v>3770004000</v>
       </c>
       <c r="F31">
-        <v>3149000000</v>
+        <v>3148657000</v>
       </c>
       <c r="G31">
         <v>2935861000</v>
@@ -3596,8 +3707,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>5510214000</v>
@@ -3718,8 +3829,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>222455000</v>
@@ -3840,8 +3951,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>3936455000</v>
@@ -3962,23 +4073,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>-2935000000</v>
+        <v>-2934646000</v>
       </c>
       <c r="C35">
-        <v>-2679000000</v>
+        <v>-2679268000</v>
       </c>
       <c r="D35">
-        <v>-2500000000</v>
+        <v>-2499775000</v>
       </c>
       <c r="E35">
-        <v>-2288000000</v>
+        <v>-2303560000</v>
       </c>
       <c r="F35">
-        <v>-2226000000</v>
+        <v>-2240699000</v>
       </c>
       <c r="G35">
         <v>-2036129000</v>
@@ -4084,23 +4195,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>42000000</v>
+        <v>42476000</v>
       </c>
       <c r="C36">
-        <v>43000000</v>
+        <v>43157000</v>
       </c>
       <c r="D36">
-        <v>44000000</v>
+        <v>44385000</v>
       </c>
       <c r="E36">
-        <v>60000000</v>
+        <v>44632000</v>
       </c>
       <c r="F36">
-        <v>58000000</v>
+        <v>43376000</v>
       </c>
       <c r="G36">
         <v>44838000</v>
